--- a/Modelos em Python/resultado_nemenyi_smape.xlsx
+++ b/Modelos em Python/resultado_nemenyi_smape.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.978226357384769</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9997910834785941</v>
+        <v>0.9999564544097169</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08625779442693811</v>
+        <v>0.05158140102164208</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06036147359504684</v>
+        <v>0.04038964061071228</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999999943726699</v>
+        <v>0.9999999711972061</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999999999859</v>
+        <v>0.9999999999999944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.978226357384769</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999999827416</v>
+        <v>0.9999999998395077</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9787687645959322</v>
+        <v>0.9844653015855171</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1845048012933188</v>
+        <v>0.2588212503479118</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8517629578778462</v>
+        <v>0.8395091610532374</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.9767259314721041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9997910834785941</v>
+        <v>0.9999624475864144</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08625779442693811</v>
+        <v>0.04927363426194339</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06036147359504684</v>
+        <v>0.03850489557943201</v>
       </c>
       <c r="K3" t="n">
-        <v>0.999999943726699</v>
+        <v>0.9999999626865548</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999859</v>
+        <v>0.9999999999999973</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.9767259314721041</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999999827416</v>
+        <v>0.9999999997687764</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9787687645959322</v>
+        <v>0.9833220444579366</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1845048012933188</v>
+        <v>0.2513560947783191</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8517629578778462</v>
+        <v>0.8331601066952922</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999999988257187</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9988889498745459</v>
+        <v>0.9997440287347347</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1501692978074877</v>
+        <v>0.09076730036327919</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1100974306474035</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999999991183779</v>
+        <v>0.9999999994202017</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999737272</v>
+        <v>0.9999999999919552</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9999999988257187</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999999999999928</v>
+        <v>0.9999999999995105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9927545728195598</v>
+        <v>0.9944077305460729</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2868934008867218</v>
+        <v>0.3672048683720228</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9228126825837805</v>
+        <v>0.9090143099889361</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999322447604</v>
+        <v>0.9784083075378305</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9997877613286533</v>
+        <v>0.9999556471600725</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08670092020469301</v>
+        <v>0.05187596875625575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06069597603796403</v>
+        <v>0.04063053343508746</v>
       </c>
       <c r="K5" t="n">
-        <v>0.999999945454571</v>
+        <v>0.9999999721236108</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9999999999999847</v>
+        <v>0.999999999999994</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9999999322447604</v>
+        <v>0.9784083075378305</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999999836378</v>
+        <v>0.9999999998467619</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9789470518020045</v>
+        <v>0.9846035828280894</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1852710269051937</v>
+        <v>0.2597630221351759</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8525089219574412</v>
+        <v>0.8402923871964129</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999992534193</v>
+        <v>0.9924550654758634</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9987180968072068</v>
+        <v>0.9997016015297389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1576161022467016</v>
+        <v>0.09545643711668049</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1160671395750824</v>
+        <v>0.07694412235846705</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999994443637</v>
+        <v>0.9999999996231798</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999539977</v>
+        <v>0.9999999999860714</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9999999992534193</v>
+        <v>0.9924550654758634</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999997516</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9935267651640498</v>
+        <v>0.9949727187305103</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2979391224416938</v>
+        <v>0.3783969926197019</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9279806012585783</v>
+        <v>0.9143117146230799</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.978226357384769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.9767259314721041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999988257187</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999322447604</v>
+        <v>0.9784083075378305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999999992534193</v>
+        <v>0.9924550654758634</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9450437428336554</v>
+        <v>0.3122963964233247</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5592476976770433</v>
+        <v>0.9902438897538398</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4787335879390046</v>
+        <v>0.9855435680532152</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9999580290142389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9132700146354589</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.999999999999982</v>
+        <v>0.999614882374307</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9999766690647531</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7439464624589778</v>
+        <v>0.9998874977542347</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9999999909283874</v>
+        <v>0.9868041473591037</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9999999989174622</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="S7" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9999999999875008</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997910834785941</v>
+        <v>0.9999564544097169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9997910834785941</v>
+        <v>0.9999624475864144</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9988889498745459</v>
+        <v>0.9997440287347347</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997877613286533</v>
+        <v>0.9999556471600725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9987180968072068</v>
+        <v>0.9997016015297389</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9450437428336554</v>
+        <v>0.3122963964233247</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>9.324060927113434e-05</v>
+        <v>9.039663279882961e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>4.61554377597104e-05</v>
+        <v>5.830369219017043e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9476255259080764</v>
+        <v>0.9778587559839618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999955105960889</v>
+        <v>0.9999993655888949</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9450437428336554</v>
+        <v>0.3122963964233247</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9898600251187322</v>
+        <v>0.9936593216000902</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2270875163870065</v>
+        <v>0.3539458933943266</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0004681424677451003</v>
+        <v>0.002283339508238682</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9994696510853337</v>
+        <v>0.9998816966391344</v>
       </c>
       <c r="R8" t="n">
-        <v>0.998859464047296</v>
+        <v>0.9997440287347347</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05709732256325638</v>
+        <v>0.08581536728252148</v>
       </c>
     </row>
     <row r="9">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08625779442693811</v>
+        <v>0.05158140102164208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08625779442693811</v>
+        <v>0.04927363426194339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1501692978074877</v>
+        <v>0.09076730036327919</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08670092020469301</v>
+        <v>0.05187596875625575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1576161022467016</v>
+        <v>0.09545643711668049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5592476976770433</v>
+        <v>0.9902438897538398</v>
       </c>
       <c r="H9" t="n">
-        <v>9.324060927113434e-05</v>
+        <v>9.039663279882961e-05</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -986,31 +986,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5508468200991832</v>
+        <v>0.4126679309144378</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02674968512618359</v>
+        <v>0.01536303261430979</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5592476976770433</v>
+        <v>0.9902438897538398</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3196003924002595</v>
+        <v>0.2692848798020533</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9962612622836797</v>
+        <v>0.9859317193121017</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999042501</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1171776932380763</v>
+        <v>0.07068012056862957</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1515047188592607</v>
+        <v>0.09076730036327919</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9999428262696766</v>
+        <v>0.999784388850499</v>
       </c>
     </row>
     <row r="10">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06036147359504684</v>
+        <v>0.04038964061071228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06036147359504684</v>
+        <v>0.03850489557943201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1100974306474035</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06069597603796403</v>
+        <v>0.04063053343508746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1160671395750824</v>
+        <v>0.07694412235846705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4787335879390046</v>
+        <v>0.9855435680532152</v>
       </c>
       <c r="H10" t="n">
-        <v>4.61554377597104e-05</v>
+        <v>5.830369219017043e-05</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1047,31 +1047,31 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4703703101378451</v>
+        <v>0.364981727427687</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01724648320218131</v>
+        <v>0.01146073567711694</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4787335879390046</v>
+        <v>0.9855435680532152</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2532128183733685</v>
+        <v>0.2305898531130199</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9923786923860688</v>
+        <v>0.9796479462965697</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999999998862</v>
+        <v>0.9999999993689239</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08406833819815356</v>
+        <v>0.05614559151545256</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1111655107074457</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9998218278640362</v>
+        <v>0.9995914674251578</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999999943726699</v>
+        <v>0.9999999711972061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999999943726699</v>
+        <v>0.9999999626865548</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999991183779</v>
+        <v>0.9999999994202017</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999999945454571</v>
+        <v>0.9999999721236108</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999994443637</v>
+        <v>0.9999999996231798</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9999580290142389</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9476255259080764</v>
+        <v>0.9778587559839618</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5508468200991832</v>
+        <v>0.4126679309144378</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4703703101378451</v>
+        <v>0.364981727427687</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999897909750043</v>
+        <v>0.9999948693640435</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.9999580290142389</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9999999999999899</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999732882397708</v>
+        <v>0.9999800520433403</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7368264905428218</v>
+        <v>0.8001237116260783</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.999999992932709</v>
+        <v>0.9999999960708573</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999999991885193</v>
+        <v>0.9999999994202017</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9976737487924564</v>
+        <v>0.9964255639246611</v>
       </c>
     </row>
     <row r="12">
@@ -1142,58 +1142,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999859</v>
+        <v>0.9999999999999944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999859</v>
+        <v>0.9999999999999973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999737272</v>
+        <v>0.9999999999919552</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999999847</v>
+        <v>0.999999999999994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999539977</v>
+        <v>0.9999999999860714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9132700146354589</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9999955105960889</v>
+        <v>0.9999993655888949</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02674968512618359</v>
+        <v>0.01536303261430979</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01724648320218131</v>
+        <v>0.01146073567711694</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9999897909750043</v>
+        <v>0.9999948693640435</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9132700146354589</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999999362939329</v>
+        <v>0.9999998246950528</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9090151142909751</v>
+        <v>0.9320184244680429</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06992721367043235</v>
+        <v>0.1149630792654524</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999999999987905</v>
+        <v>0.9999999999995717</v>
       </c>
       <c r="R12" t="n">
-        <v>0.999999999970867</v>
+        <v>0.9999999999919552</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6555080306752377</v>
+        <v>0.6498066037028879</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.978226357384769</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999301317235</v>
+        <v>0.9767259314721041</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999988257187</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999322447604</v>
+        <v>0.9784083075378305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999999992534193</v>
+        <v>0.9924550654758634</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9450437428336554</v>
+        <v>0.3122963964233247</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5592476976770433</v>
+        <v>0.9902438897538398</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4787335879390046</v>
+        <v>0.9855435680532152</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9999580290142389</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9132700146354589</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.999999999999982</v>
+        <v>0.999614882374307</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9999766690647531</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7439464624589778</v>
+        <v>0.9998874977542347</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9999999909283874</v>
+        <v>0.9868041473591037</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9999999989174622</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="S13" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9999999999875008</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999827416</v>
+        <v>0.9999999998395077</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999999827416</v>
+        <v>0.9999999997687764</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999928</v>
+        <v>0.9999999999995105</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999836378</v>
+        <v>0.9999999998467619</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999997516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.999999999999982</v>
+        <v>0.999614882374307</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9898600251187322</v>
+        <v>0.9936593216000902</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3196003924002595</v>
+        <v>0.2692848798020533</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2532128183733685</v>
+        <v>0.2305898531130199</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999999999999899</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999362939329</v>
+        <v>0.9999998246950528</v>
       </c>
       <c r="M14" t="n">
-        <v>0.999999999999982</v>
+        <v>0.999614882374307</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9992973528847342</v>
+        <v>0.9997877583604167</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5075345544959056</v>
+        <v>0.6634354329201118</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9999999999995717</v>
+        <v>0.999999999991008</v>
       </c>
       <c r="R14" t="n">
-        <v>0.999999999999994</v>
+        <v>0.9999999999995105</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9819549481436189</v>
+        <v>0.9860591817411367</v>
       </c>
     </row>
     <row r="15">
@@ -1325,58 +1325,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9787687645959322</v>
+        <v>0.9844653015855171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9787687645959322</v>
+        <v>0.9833220444579366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9927545728195598</v>
+        <v>0.9944077305460729</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789470518020045</v>
+        <v>0.9846035828280894</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9935267651640498</v>
+        <v>0.9949727187305103</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999766690647531</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2270875163870065</v>
+        <v>0.3539458933943266</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9962612622836797</v>
+        <v>0.9859317193121017</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9923786923860688</v>
+        <v>0.9796479462965697</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999732882397708</v>
+        <v>0.9999800520433403</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9090151142909751</v>
+        <v>0.9320184244680429</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9999766690647531</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9992973528847342</v>
+        <v>0.9997877583604167</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9995408047701226</v>
+        <v>0.9997877583604167</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9877461938539435</v>
+        <v>0.9908866389995526</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9929004829497887</v>
+        <v>0.9944077305460729</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9999999999939303</v>
+        <v>0.9999999999087207</v>
       </c>
     </row>
     <row r="16">
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1845048012933188</v>
+        <v>0.2588212503479118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1845048012933188</v>
+        <v>0.2513560947783191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2868934008867218</v>
+        <v>0.3672048683720228</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1852710269051937</v>
+        <v>0.2597630221351759</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2979391224416938</v>
+        <v>0.3783969926197019</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7439464624589778</v>
+        <v>0.9998874977542347</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0004681424677451003</v>
+        <v>0.002283339508238682</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999042501</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999998862</v>
+        <v>0.9999999993689239</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7368264905428218</v>
+        <v>0.8001237116260783</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06992721367043235</v>
+        <v>0.1149630792654524</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7439464624589778</v>
+        <v>0.9998874977542347</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5075345544959056</v>
+        <v>0.6634354329201118</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9995408047701226</v>
+        <v>0.9997877583604167</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2359081840117406</v>
+        <v>0.3154159801195284</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2888858558196513</v>
+        <v>0.3672048683720228</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9999980939166687</v>
+        <v>0.9999998763266474</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999909283874</v>
+        <v>0.9868041473591037</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9994696510853337</v>
+        <v>0.9998816966391344</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1171776932380763</v>
+        <v>0.07068012056862957</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08406833819815356</v>
+        <v>0.05614559151545256</v>
       </c>
       <c r="K17" t="n">
-        <v>0.999999992932709</v>
+        <v>0.9999999960708573</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999999999987905</v>
+        <v>0.9999999999995717</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9999999909283874</v>
+        <v>0.9868041473591037</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9999999999995717</v>
+        <v>0.999999999991008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9877461938539435</v>
+        <v>0.9908866389995526</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2359081840117406</v>
+        <v>0.3154159801195284</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8935856599270883</v>
+        <v>0.8804250273243517</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999999989174622</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.998859464047296</v>
+        <v>0.9997440287347347</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1515047188592607</v>
+        <v>0.09076730036327919</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1111655107074457</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999999991885193</v>
+        <v>0.9999999994202017</v>
       </c>
       <c r="L18" t="n">
-        <v>0.999999999970867</v>
+        <v>0.9999999999919552</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9999999989174622</v>
+        <v>0.9916605986670239</v>
       </c>
       <c r="N18" t="n">
-        <v>0.999999999999994</v>
+        <v>0.9999999999995105</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9929004829497887</v>
+        <v>0.9944077305460729</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2888858558196513</v>
+        <v>0.3672048683720228</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9090143099889361</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8517629578778462</v>
+        <v>0.8395091610532374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8517629578778462</v>
+        <v>0.8331601066952922</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9228126825837805</v>
+        <v>0.9090143099889361</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8525089219574412</v>
+        <v>0.8402923871964129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9279806012585783</v>
+        <v>0.9143117146230799</v>
       </c>
       <c r="G19" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05709732256325638</v>
+        <v>0.08581536728252148</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999428262696766</v>
+        <v>0.999784388850499</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9998218278640362</v>
+        <v>0.9995914674251578</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9976737487924564</v>
+        <v>0.9964255639246611</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6555080306752377</v>
+        <v>0.6498066037028879</v>
       </c>
       <c r="M19" t="n">
-        <v>0.997861428116938</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9819549481436189</v>
+        <v>0.9860591817411367</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999999999939303</v>
+        <v>0.9999999999087207</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9999980939166687</v>
+        <v>0.9999998763266474</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8935856599270883</v>
+        <v>0.8804250273243517</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9090143099889361</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>

--- a/Modelos em Python/resultado_nemenyi_smape.xlsx
+++ b/Modelos em Python/resultado_nemenyi_smape.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.978226357384769</v>
+        <v>0.9999928812979193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999564544097169</v>
+        <v>0.9998533086680198</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05158140102164208</v>
+        <v>0.07613522579486573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04038964061071228</v>
+        <v>0.07734668433524231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999999711972061</v>
+        <v>0.9999999562344893</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999999999944</v>
+        <v>0.9999999999999751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.978226357384769</v>
+        <v>0.9999928812979193</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999998395077</v>
+        <v>0.9999999999247183</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9844653015855171</v>
+        <v>0.9798195894171874</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2588212503479118</v>
+        <v>0.1688881102411895</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8395091610532374</v>
+        <v>0.8307372878243151</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9767259314721041</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999624475864144</v>
+        <v>0.9998735371190559</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04927363426194339</v>
+        <v>0.07258997445432842</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03850489557943201</v>
+        <v>0.07375697759737589</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999626865548</v>
+        <v>0.9999999419443659</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999881</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9767259314721041</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999997687764</v>
+        <v>0.9999999998842309</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9833220444579366</v>
+        <v>0.9782256535604661</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2513560947783191</v>
+        <v>0.1624787990434703</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8331601066952922</v>
+        <v>0.8233567215416062</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995253392167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9997440287347347</v>
+        <v>0.9992047853502664</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09076730036327919</v>
+        <v>0.1329354132541355</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.1347765640718614</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999999994202017</v>
+        <v>0.9999999992839719</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999919552</v>
+        <v>0.9999999999677149</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995253392167</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999999999995105</v>
+        <v>0.9999999999999086</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9944077305460729</v>
+        <v>0.9929721694711875</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3672048683720228</v>
+        <v>0.2635430546255298</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9090143099889361</v>
+        <v>0.9073790832710931</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9784083075378305</v>
+        <v>0.9999930331031475</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999556471600725</v>
+        <v>0.9998508902106271</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05187596875625575</v>
+        <v>0.07653738173057453</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04063053343508746</v>
+        <v>0.077753838823561</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999999721236108</v>
+        <v>0.9999999576020467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.999999999999994</v>
+        <v>0.9999999999999731</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9784083075378305</v>
+        <v>0.9999930331031475</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999998467619</v>
+        <v>0.9999999999282865</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9846035828280894</v>
+        <v>0.9799907141407602</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2597630221351759</v>
+        <v>0.1696106399339181</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8402923871964129</v>
+        <v>0.8315459070183816</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9924550654758634</v>
+        <v>0.9999996374262546</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9997016015297389</v>
+        <v>0.9990894904121123</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09545643711668049</v>
+        <v>0.1391432631873718</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07694412235846705</v>
+        <v>0.1410451163020151</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999996231798</v>
+        <v>0.9999999995318506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999860714</v>
+        <v>0.999999999946583</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9924550654758634</v>
+        <v>0.9999996374262546</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9999999999997516</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9949727187305103</v>
+        <v>0.9936590943261842</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3783969926197019</v>
+        <v>0.2731399244610984</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9143117146230799</v>
+        <v>0.9127435093875902</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.978226357384769</v>
+        <v>0.9999928812979193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9767259314721041</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995253392167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9784083075378305</v>
+        <v>0.9999930331031475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9924550654758634</v>
+        <v>0.9999996374262546</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3122963964233247</v>
+        <v>0.8591127552324432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9902438897538398</v>
+        <v>0.7357950377697109</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9855435680532152</v>
+        <v>0.7388629921720113</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9999580290142389</v>
+        <v>0.9999999999999934</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9132700146354589</v>
+        <v>0.9996781030891555</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.999614882374307</v>
+        <v>0.9999999998319249</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.9999996837656314</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9998874977542347</v>
+        <v>0.8777989464929671</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9868041473591037</v>
+        <v>0.9999982686553576</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995378421768</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9997359923419911</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999564544097169</v>
+        <v>0.9998533086680198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999624475864144</v>
+        <v>0.9998735371190559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997440287347347</v>
+        <v>0.9992047853502664</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999556471600725</v>
+        <v>0.9998508902106271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997016015297389</v>
+        <v>0.9990894904121123</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3122963964233247</v>
+        <v>0.8591127552324432</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>9.039663279882961e-05</v>
+        <v>9.13250912185849e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>5.830369219017043e-05</v>
+        <v>9.419352633685799e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9778587559839618</v>
+        <v>0.9576664436488026</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9999993655888949</v>
+        <v>0.9999976943220709</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3122963964233247</v>
+        <v>0.8591127552324432</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9936593216000902</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3539458933943266</v>
+        <v>0.2522765419600788</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002283339508238682</v>
+        <v>0.0004724932285507334</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9998816966391344</v>
+        <v>0.9996148665306874</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9997440287347347</v>
+        <v>0.9991938674816698</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08581536728252148</v>
+        <v>0.05551646707062562</v>
       </c>
     </row>
     <row r="9">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05158140102164208</v>
+        <v>0.07613522579486573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04927363426194339</v>
+        <v>0.07258997445432842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09076730036327919</v>
+        <v>0.1329354132541355</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05187596875625575</v>
+        <v>0.07653738173057453</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09545643711668049</v>
+        <v>0.1391432631873718</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9902438897538398</v>
+        <v>0.7357950377697109</v>
       </c>
       <c r="H9" t="n">
-        <v>9.039663279882961e-05</v>
+        <v>9.13250912185849e-05</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -986,31 +986,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4126679309144378</v>
+        <v>0.5123377337200039</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01536303261430979</v>
+        <v>0.02190481466843252</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9902438897538398</v>
+        <v>0.7357950377697109</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2692848798020533</v>
+        <v>0.3248555472181147</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9859317193121017</v>
+        <v>0.9948083863677131</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9999999999042501</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07068012056862957</v>
+        <v>0.1043542859177866</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09076730036327919</v>
+        <v>0.1335471164772138</v>
       </c>
       <c r="S9" t="n">
-        <v>0.999784388850499</v>
+        <v>0.9999458238561817</v>
       </c>
     </row>
     <row r="10">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04038964061071228</v>
+        <v>0.07734668433524231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03850489557943201</v>
+        <v>0.07375697759737589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.1347765640718614</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04063053343508746</v>
+        <v>0.077753838823561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07694412235846705</v>
+        <v>0.1410451163020151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9855435680532152</v>
+        <v>0.7388629921720113</v>
       </c>
       <c r="H10" t="n">
-        <v>5.830369219017043e-05</v>
+        <v>9.419352633685799e-05</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1047,31 +1047,31 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.364981727427687</v>
+        <v>0.5159481218098882</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01146073567711694</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9855435680532152</v>
+        <v>0.7388629921720113</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2305898531130199</v>
+        <v>0.3280327957093351</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9796479462965697</v>
+        <v>0.9949725357236505</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999993689239</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05614559151545256</v>
+        <v>0.1058965202871832</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.1353943123400963</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9995914674251578</v>
+        <v>0.9999486812330163</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999711972061</v>
+        <v>0.9999999562344893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999626865548</v>
+        <v>0.9999999419443659</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999994202017</v>
+        <v>0.9999999992839719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999721236108</v>
+        <v>0.9999999576020467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999996231798</v>
+        <v>0.9999999995318506</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999580290142389</v>
+        <v>0.9999999999999934</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9778587559839618</v>
+        <v>0.9576664436488026</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126679309144378</v>
+        <v>0.5123377337200039</v>
       </c>
       <c r="J11" t="n">
-        <v>0.364981727427687</v>
+        <v>0.5159481218098882</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999948693640435</v>
+        <v>0.9999900016418833</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9999580290142389</v>
+        <v>0.9999999999999934</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999800520433403</v>
+        <v>0.9999722418659264</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8001237116260783</v>
+        <v>0.70640335247441</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999999960708573</v>
+        <v>0.9999999947147578</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999999994202017</v>
+        <v>0.9999999993133984</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9964255639246611</v>
+        <v>0.9965052510172676</v>
       </c>
     </row>
     <row r="12">
@@ -1142,58 +1142,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999944</v>
+        <v>0.9999999999999751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.9999999999999881</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999919552</v>
+        <v>0.9999999999677149</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999999999994</v>
+        <v>0.9999999999999731</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999860714</v>
+        <v>0.999999999946583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9132700146354589</v>
+        <v>0.9996781030891555</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9999993655888949</v>
+        <v>0.9999976943220709</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01536303261430979</v>
+        <v>0.02190481466843252</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01146073567711694</v>
+        <v>0.02233797466132328</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9999948693640435</v>
+        <v>0.9999900016418833</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9132700146354589</v>
+        <v>0.9996781030891555</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999998246950528</v>
+        <v>0.9999998143487164</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9320184244680429</v>
+        <v>0.9084698703260624</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1149630792654524</v>
+        <v>0.06002519318915556</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999999999995717</v>
+        <v>0.9999999999981332</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9999999999919552</v>
+        <v>0.9999999999660228</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6498066037028879</v>
+        <v>0.6162264976936909</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.978226357384769</v>
+        <v>0.9999928812979193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9767259314721041</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995253392167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9784083075378305</v>
+        <v>0.9999930331031475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9924550654758634</v>
+        <v>0.9999996374262546</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3122963964233247</v>
+        <v>0.8591127552324432</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9902438897538398</v>
+        <v>0.7357950377697109</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9855435680532152</v>
+        <v>0.7388629921720113</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9999580290142389</v>
+        <v>0.9999999999999934</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9132700146354589</v>
+        <v>0.9996781030891555</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.999614882374307</v>
+        <v>0.9999999998319249</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.9999996837656314</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9998874977542347</v>
+        <v>0.8777989464929671</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9868041473591037</v>
+        <v>0.9999982686553576</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995378421768</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9997359923419911</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999998395077</v>
+        <v>0.9999999999247183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999997687764</v>
+        <v>0.9999999998842309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999995105</v>
+        <v>0.9999999999999086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999998467619</v>
+        <v>0.9999999999282865</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999999999997516</v>
+        <v>0.9999999999999569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.999614882374307</v>
+        <v>0.9999999998319249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9936593216000902</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2692848798020533</v>
+        <v>0.3248555472181147</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2305898531130199</v>
+        <v>0.3280327957093351</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999998246950528</v>
+        <v>0.9999998143487164</v>
       </c>
       <c r="M14" t="n">
-        <v>0.999614882374307</v>
+        <v>0.9999999998319249</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997877583604167</v>
+        <v>0.9995730648148056</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6634354329201118</v>
+        <v>0.5171517407771233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.999999999991008</v>
+        <v>0.9999999999973165</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9999999999995105</v>
+        <v>0.9999999999999151</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9860591817411367</v>
+        <v>0.9822656233100264</v>
       </c>
     </row>
     <row r="15">
@@ -1325,58 +1325,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9844653015855171</v>
+        <v>0.9798195894171874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9833220444579366</v>
+        <v>0.9782256535604661</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9944077305460729</v>
+        <v>0.9929721694711875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9846035828280894</v>
+        <v>0.9799907141407602</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9949727187305103</v>
+        <v>0.9936590943261842</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9999996837656314</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3539458933943266</v>
+        <v>0.2522765419600788</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9859317193121017</v>
+        <v>0.9948083863677131</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9796479462965697</v>
+        <v>0.9949725357236505</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999800520433403</v>
+        <v>0.9999722418659264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9320184244680429</v>
+        <v>0.9084698703260624</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.9999996837656314</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997877583604167</v>
+        <v>0.9995730648148056</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9997877583604167</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9908866389995526</v>
+        <v>0.9884149772224007</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9944077305460729</v>
+        <v>0.9930435747395452</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9999999999087207</v>
+        <v>0.999999999964248</v>
       </c>
     </row>
     <row r="16">
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2588212503479118</v>
+        <v>0.1688881102411895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2513560947783191</v>
+        <v>0.1624787990434703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3672048683720228</v>
+        <v>0.2635430546255298</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2597630221351759</v>
+        <v>0.1696106399339181</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3783969926197019</v>
+        <v>0.2731399244610984</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9998874977542347</v>
+        <v>0.8777989464929671</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002283339508238682</v>
+        <v>0.0004724932285507334</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999999042501</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999993689239</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8001237116260783</v>
+        <v>0.70640335247441</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1149630792654524</v>
+        <v>0.06002519318915556</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9998874977542347</v>
+        <v>0.8777989464929671</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6634354329201118</v>
+        <v>0.5171517407771233</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9997877583604167</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3154159801195284</v>
+        <v>0.2176099544581122</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3672048683720228</v>
+        <v>0.2644943041572612</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9999998763266474</v>
+        <v>0.9999983504259413</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9868041473591037</v>
+        <v>0.9999982686553576</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9998816966391344</v>
+        <v>0.9996148665306874</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07068012056862957</v>
+        <v>0.1043542859177866</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05614559151545256</v>
+        <v>0.1058965202871832</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999999960708573</v>
+        <v>0.9999999947147578</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999999999995717</v>
+        <v>0.9999999999981332</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9868041473591037</v>
+        <v>0.9999982686553576</v>
       </c>
       <c r="N17" t="n">
-        <v>0.999999999991008</v>
+        <v>0.9999999999973165</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9908866389995526</v>
+        <v>0.9884149772224007</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3154159801195284</v>
+        <v>0.2176099544581122</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8804250273243517</v>
+        <v>0.8764733758888703</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995378421768</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9997440287347347</v>
+        <v>0.9991938674816698</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09076730036327919</v>
+        <v>0.1335471164772138</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.1353943123400963</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999999994202017</v>
+        <v>0.9999999993133984</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999999999919552</v>
+        <v>0.9999999999660228</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9916605986670239</v>
+        <v>0.9999995378421768</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9999999999995105</v>
+        <v>0.9999999999999151</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9944077305460729</v>
+        <v>0.9930435747395452</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3672048683720228</v>
+        <v>0.2644943041572612</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9090143099889361</v>
+        <v>0.9079256000170581</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8395091610532374</v>
+        <v>0.8307372878243151</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8331601066952922</v>
+        <v>0.8233567215416062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9090143099889361</v>
+        <v>0.9073790832710931</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8402923871964129</v>
+        <v>0.8315459070183816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9143117146230799</v>
+        <v>0.9127435093875902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9997359923419911</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08581536728252148</v>
+        <v>0.05551646707062562</v>
       </c>
       <c r="I19" t="n">
-        <v>0.999784388850499</v>
+        <v>0.9999458238561817</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9995914674251578</v>
+        <v>0.9999486812330163</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9964255639246611</v>
+        <v>0.9965052510172676</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6498066037028879</v>
+        <v>0.6162264976936909</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9997359923419911</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9860591817411367</v>
+        <v>0.9822656233100264</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999999999087207</v>
+        <v>0.999999999964248</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9999998763266474</v>
+        <v>0.9999983504259413</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8804250273243517</v>
+        <v>0.8764733758888703</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9090143099889361</v>
+        <v>0.9079256000170581</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
